--- a/Config/boeReimbursementPageConfig.xlsx
+++ b/Config/boeReimbursementPageConfig.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>配置方式</t>
   </si>
@@ -111,13 +111,22 @@
     <t>TestNewDailyExpenseBoe</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>日常费用报账单</t>
+  </si>
+  <si>
+    <t>test_newDomesticTravelBoe.py</t>
+  </si>
+  <si>
+    <t>TestNewDomesticTravelBoe</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>test_newDomesticTravelBoe.py</t>
-  </si>
-  <si>
-    <t>TestNewDomesticTravelBoe</t>
+    <t>差旅报账单</t>
   </si>
   <si>
     <t>test_internationalTravelBoe.py</t>
@@ -126,13 +135,16 @@
     <t>TestInternationalTravelBoe</t>
   </si>
   <si>
-    <t>N</t>
+    <t>差旅报账单（国际）</t>
   </si>
   <si>
     <t>test_newMultiDomesticTravelBoe.py</t>
   </si>
   <si>
     <t>TestNewMultiDomesticTravelBoe</t>
+  </si>
+  <si>
+    <t>多人差旅报账单</t>
   </si>
 </sst>
 </file>
@@ -141,8 +153,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -162,13 +174,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -177,6 +182,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -185,36 +214,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,55 +275,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,6 +290,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -318,13 +330,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,157 +492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,11 +539,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,21 +600,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,34 +631,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -644,133 +656,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,7 +1134,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1133,7 +1145,7 @@
     <col min="4" max="4" width="31.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.3333333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.225" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.775" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -1181,7 +1193,9 @@
       <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8">
@@ -1192,16 +1206,18 @@
         <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8">
@@ -1212,16 +1228,18 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8">
@@ -1232,16 +1250,18 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="H5" s="6"/>
     </row>
     <row r="33" spans="4:8">
@@ -1399,11 +1419,14 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="A1">
       <formula1>"配置方式"</formula1>
     </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="B1">
+      <formula1>"路径"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
       <formula1>"文件名"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="B1">
-      <formula1>"路径"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
+      <formula1>"是否执行"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
       <formula1>"类名"</formula1>
@@ -1413,9 +1436,6 @@
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
       <formula1>"方法名"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
-      <formula1>"是否执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4 A5">
       <formula1>"1-按方法运行,2-按类名运行,3-按文件名运行"</formula1>

--- a/Config/boeReimbursementPageConfig.xlsx
+++ b/Config/boeReimbursementPageConfig.xlsx
@@ -111,28 +111,28 @@
     <t>TestNewDailyExpenseBoe</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>日常费用报账单</t>
+  </si>
+  <si>
+    <t>test_newDomesticTravelBoe.py</t>
+  </si>
+  <si>
+    <t>TestNewDomesticTravelBoe</t>
+  </si>
+  <si>
+    <t>差旅报账单</t>
+  </si>
+  <si>
+    <t>test_internationalTravelBoe.py</t>
+  </si>
+  <si>
+    <t>TestInternationalTravelBoe</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>日常费用报账单</t>
-  </si>
-  <si>
-    <t>test_newDomesticTravelBoe.py</t>
-  </si>
-  <si>
-    <t>TestNewDomesticTravelBoe</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>差旅报账单</t>
-  </si>
-  <si>
-    <t>test_internationalTravelBoe.py</t>
-  </si>
-  <si>
-    <t>TestInternationalTravelBoe</t>
   </si>
   <si>
     <t>差旅报账单（国际）</t>
@@ -152,8 +152,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -174,6 +174,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -182,100 +272,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,20 +310,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -330,25 +330,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,157 +504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,30 +539,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -575,31 +551,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,7 +584,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -636,6 +612,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -644,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,133 +656,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1213,10 +1213,10 @@
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="H3" s="8"/>
     </row>
@@ -1228,14 +1228,14 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>20</v>
@@ -1416,26 +1416,26 @@
     </row>
   </sheetData>
   <dataValidations count="8">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
+      <formula1>"文件名"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="A1">
       <formula1>"配置方式"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="B1">
       <formula1>"路径"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
-      <formula1>"文件名"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
-      <formula1>"是否执行"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5">
+      <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
       <formula1>"类名"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
       <formula1>"方法名"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
+      <formula1>"是否执行"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4 A5">
       <formula1>"1-按方法运行,2-按类名运行,3-按文件名运行"</formula1>

--- a/Config/boeReimbursementPageConfig.xlsx
+++ b/Config/boeReimbursementPageConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="26445" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -181,86 +181,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,16 +234,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,6 +270,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -330,55 +330,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,127 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,6 +535,63 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,30 +622,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -603,39 +636,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -644,10 +644,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -656,133 +656,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1416,26 +1416,26 @@
     </row>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
-      <formula1>"文件名"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="B1">
+      <formula1>"路径"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="A1">
       <formula1>"配置方式"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="B1">
-      <formula1>"路径"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
+      <formula1>"是否执行"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5">
-      <formula1>"Y,N"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="C1">
+      <formula1>"文件名"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
+      <formula1>"方法名"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="D1">
       <formula1>"类名"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="E1">
-      <formula1>"方法名"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="禁止修改" error="禁止修改此列名" sqref="F1">
-      <formula1>"是否执行"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4 F5">
+      <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3 A4 A5">
       <formula1>"1-按方法运行,2-按类名运行,3-按文件名运行"</formula1>
